--- a/tut05/output/0401EE22.xlsx
+++ b/tut05/output/0401EE22.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.346938775510203</v>
+        <v>8.35</v>
       </c>
       <c r="C6" t="n">
-        <v>7.568181818181818</v>
+        <v>7.57</v>
       </c>
       <c r="D6" t="n">
-        <v>8.456521739130435</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.021739130434783</v>
+        <v>9.02</v>
       </c>
       <c r="F6" t="n">
-        <v>9.307692307692308</v>
+        <v>9.31</v>
       </c>
       <c r="G6" t="n">
         <v>9.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.395348837209303</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.315789473684211</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.346938775510203</v>
+        <v>8.35</v>
       </c>
       <c r="C8" t="n">
-        <v>7.978494623655914</v>
+        <v>7.98</v>
       </c>
       <c r="D8" t="n">
-        <v>8.136690647482014</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.356756756756758</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.522321428571429</v>
+        <v>8.52</v>
       </c>
       <c r="G8" t="n">
-        <v>8.609848484848484</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.719869706840392</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.785507246376811</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
   </sheetData>
